--- a/KUtil/KMM1_MR01/20231215-01@자재(품목)청구서_1_자재요청서.xlsx
+++ b/KUtil/KMM1_MR01/20231215-01@자재(품목)청구서_1_자재요청서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\Koin\KUtil\KMM1_MR01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6154B1CC-A454-4382-B307-74ADF303078D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E7B4B1-FB51-49CE-A81E-EE030B7AA499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
   </bookViews>
   <sheets>
     <sheet name="자재요청서" sheetId="2" r:id="rId1"/>
